--- a/Staj-2021 max.xlsx
+++ b/Staj-2021 max.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="93">
   <si>
     <t xml:space="preserve">MODEL </t>
   </si>
@@ -87,7 +87,7 @@
     <t>93.0</t>
   </si>
   <si>
-    <t xml:space="preserve">no training  </t>
+    <t>95.8</t>
   </si>
   <si>
     <t>Effect of momentum</t>
@@ -96,6 +96,9 @@
     <t>0.8</t>
   </si>
   <si>
+    <t>95.0</t>
+  </si>
+  <si>
     <t>92.3</t>
   </si>
   <si>
@@ -144,9 +147,6 @@
     <t>95.1</t>
   </si>
   <si>
-    <t>95.8</t>
-  </si>
-  <si>
     <t>0.005)</t>
   </si>
   <si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>96.1</t>
-  </si>
-  <si>
-    <t>95.0</t>
   </si>
   <si>
     <t xml:space="preserve">MODEL  </t>
@@ -699,7 +696,9 @@
       <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5">
+        <v>10.0</v>
+      </c>
       <c r="K3" s="5" t="s">
         <v>19</v>
       </c>
@@ -732,9 +731,11 @@
       <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5">
+        <v>10.0</v>
+      </c>
       <c r="K4" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -771,16 +772,16 @@
         <v>2.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" s="5">
         <v>3.0</v>
       </c>
-      <c r="K8" s="5">
-        <v>93.0</v>
+      <c r="K8" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -812,7 +813,7 @@
         <v>3.0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -838,13 +839,13 @@
         <v>10.0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" s="5">
         <v>7.0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -870,13 +871,13 @@
         <v>28.0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J11" s="5">
         <v>19.0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -902,13 +903,13 @@
         <v>44.0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J12" s="5">
         <v>39.0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -934,13 +935,13 @@
         <v>79.0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J13" s="5">
         <v>59.0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -963,14 +964,14 @@
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -993,11 +994,11 @@
         <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1014,19 +1015,19 @@
         <v>64.0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J17" s="5">
         <v>10.0</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -1043,7 +1044,7 @@
         <v>64.0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>17</v>
@@ -1052,13 +1053,13 @@
         <v>2.0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J18" s="5">
         <v>10.0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -1090,7 +1091,7 @@
         <v>10.0</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -1104,7 +1105,7 @@
         <v>6.0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J20" s="5">
         <v>10.0</v>
@@ -1130,7 +1131,7 @@
         <v>20.0</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -1147,7 +1148,7 @@
         <v>1024.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>15</v>
@@ -1171,7 +1172,7 @@
         <v>10.0</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>44</v>
@@ -1206,7 +1207,7 @@
         <v>10.0</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1238,7 +1239,7 @@
         <v>10.0</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1270,7 +1271,7 @@
         <v>10.0</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -1292,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1">
         <v>64.0</v>
@@ -1313,7 +1314,7 @@
         <v>10.0</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>50</v>
@@ -1344,8 +1345,12 @@
       <c r="I30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="J30" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" s="1">
@@ -1372,8 +1377,12 @@
       <c r="I31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="J31" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" s="1">
@@ -1398,10 +1407,14 @@
         <v>4.0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="J32" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33">
       <c r="J33" s="5"/>
@@ -1503,7 +1516,7 @@
         <v>10.0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -1535,7 +1548,7 @@
         <v>10.0</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -1561,13 +1574,13 @@
         <v>3.0</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J39" s="1">
         <v>10.0</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -1588,6 +1601,12 @@
       </c>
       <c r="G42" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="J42" s="1">
         <v>10.0</v>
@@ -1631,7 +1650,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1652,10 +1671,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1664,19 +1683,19 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -1709,10 +1728,10 @@
         <v>52</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1741,10 +1760,10 @@
         <v>14.0</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1773,10 +1792,10 @@
         <v>9.0</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1805,10 +1824,10 @@
         <v>12.0</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -1840,13 +1859,13 @@
         <v>10.0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -1878,7 +1897,7 @@
         <v>52</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -1910,7 +1929,7 @@
         <v>52</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1942,7 +1961,7 @@
         <v>52</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -1976,13 +1995,13 @@
         <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1999,7 +2018,7 @@
         <v>64.0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1">
         <v>1.0</v>
@@ -2008,10 +2027,10 @@
         <v>17</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2043,7 +2062,7 @@
         <v>42</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -2072,10 +2091,10 @@
         <v>2.0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -2107,7 +2126,7 @@
         <v>52</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -2121,7 +2140,7 @@
         <v>10.0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1">
         <v>64.0</v>
@@ -2142,10 +2161,10 @@
         <v>42</v>
       </c>
       <c r="K21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -2177,7 +2196,7 @@
         <v>51</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -2209,7 +2228,7 @@
         <v>52</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -2238,10 +2257,10 @@
         <v>13.0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -2270,10 +2289,10 @@
         <v>9.0</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -2307,13 +2326,13 @@
         <v>7.0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -2345,7 +2364,7 @@
         <v>43</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -2377,7 +2396,7 @@
         <v>52</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
@@ -2406,10 +2425,10 @@
         <v>10.0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -2441,7 +2460,7 @@
         <v>48</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -2474,10 +2493,10 @@
         <v>6.0</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>54</v>
@@ -2512,7 +2531,7 @@
         <v>52</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
@@ -2541,10 +2560,10 @@
         <v>9.0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -2573,10 +2592,10 @@
         <v>9.0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -2605,10 +2624,10 @@
         <v>8.0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -2643,13 +2662,13 @@
         <v>6.0</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -2681,13 +2700,13 @@
         <v>3.0</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
